--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kgeoghegan\Dev\firmwide-crypto-risk-report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBFF6C-D925-4F00-9817-D8725F91F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B06CD-2221-46B3-982A-2BBF77FC5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40485" yWindow="-17565" windowWidth="10680" windowHeight="13110" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
+    <workbookView xWindow="-24960" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,18 +147,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -310,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,17 +318,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -679,7 +666,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,8 +675,8 @@
     <col min="3" max="3" width="14.90625" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -742,7 +729,7 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -752,21 +739,21 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
@@ -797,7 +784,7 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -807,24 +794,24 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5">
@@ -852,34 +839,34 @@
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5">
@@ -908,30 +895,30 @@
         <v>7</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
@@ -948,20 +935,20 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <f>SUM(C19,C15,C11,C7,C3)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
         <f>SUM(F15,F11,F7,F3)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <f>SUM(G3,G7,G11,G15)</f>
         <v>0</v>
       </c>

--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kgeoghegan\Dev\firmwide-crypto-risk-report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5B06CD-2221-46B3-982A-2BBF77FC5D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D5742-2FF3-46CF-81D5-FEF94A779033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24960" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
+    <workbookView xWindow="19620" yWindow="-19200" windowWidth="15210" windowHeight="13860" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>GDLP + GDT</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Delta WoW</t>
   </si>
   <si>
-    <t>WoW change</t>
-  </si>
-  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -80,7 +77,82 @@
     <t>Passive Beta</t>
   </si>
   <si>
-    <t>Firmwide</t>
+    <t>GDLP Delta Split</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Delta One</t>
+  </si>
+  <si>
+    <t>Passive Beta (BGCI/GDAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTC Mining </t>
+  </si>
+  <si>
+    <t>Firmwide Total</t>
+  </si>
+  <si>
+    <t>Gamma WoW</t>
+  </si>
+  <si>
+    <t>Vega WoW</t>
+  </si>
+  <si>
+    <t>Prior Delta</t>
+  </si>
+  <si>
+    <t>WoW chg</t>
+  </si>
+  <si>
+    <t>Prior Gamma</t>
+  </si>
+  <si>
+    <t>Wow chg</t>
+  </si>
+  <si>
+    <t>Prior Vega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$-   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $-   </t>
+  </si>
+  <si>
+    <t>Firmwide Guidelines</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Prior Price</t>
+  </si>
+  <si>
+    <t>Liquid Ventures</t>
   </si>
 </sst>
 </file>
@@ -88,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,33 +179,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -143,12 +229,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -187,21 +285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -241,9 +324,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -253,7 +334,79 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -261,13 +414,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -275,8 +428,77 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -284,11 +506,117 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -298,36 +626,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -663,295 +1060,2122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD234A-2BA1-40DE-A5D0-27D813525519}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.453125" customWidth="1"/>
+    <col min="16" max="16" width="12.90625" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.453125" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.1796875" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.08984375" customWidth="1"/>
+    <col min="29" max="29" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="56">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="56">
+        <f>SUM(D4:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="56">
+        <f t="shared" ref="E3:E19" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="57">
+        <f>IF(D3=0, 0, (C3-D3)/D3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="56">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="56">
+        <f>SUM(H4:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="56">
+        <f t="shared" ref="I3:I19" si="1">G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="57">
+        <f>IF(H3=0, 0, (G3-H3)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="56">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="56">
+        <f>SUM(L4:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <f t="shared" ref="M3:M19" si="2">K3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="57">
+        <f>IF(L3=0, 0, (K3-L3)/L3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51">
+        <v>0</v>
+      </c>
+      <c r="S3" s="47">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="51">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="51">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
-        <f>SUM(C4:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <f>SUM(D4:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <f>C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:G3" si="0">SUM(F4:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="51">
+        <v>0</v>
+      </c>
+      <c r="R4" s="51">
+        <v>0</v>
+      </c>
+      <c r="S4" s="47">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="51">
+        <v>0</v>
+      </c>
+      <c r="R5" s="51">
+        <v>0</v>
+      </c>
+      <c r="S5" s="47">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="V6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="56">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="56">
+        <f>SUM(D8:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
+        <f>IF(D7=0, 0, (C7-D7)/D7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="56">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="56">
+        <f>SUM(H8:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="57">
+        <f>IF(H7=0, 0, (G7-H7)/H7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="56">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="56">
+        <f>SUM(L8:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="57">
+        <f>IF(L7=0, 0, (K7-L7)/L7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
-        <f>SUM(C8:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" ref="E7:E15" si="1">C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:G7" si="2">SUM(F8:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="V9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+      <c r="M10" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="N10" s="18"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="56">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="56">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <f>IF(D11=0, 0, (C11-D11)/D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="56">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="56">
+        <f>SUM(H12:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="57">
+        <f>IF(H11=0, 0, (G11-H11)/H11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="56">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="56">
+        <f>SUM(L12:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="57">
+        <f>IF(L11=0, 0, (K11-L11)/L11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="V11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="45">
+        <v>0</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+      <c r="M13" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+      <c r="M14" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <f>SUM(C12:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <f>SUM(D12:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C15" s="56">
+        <f>SUM(C16:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="56">
+        <f>SUM(D16:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <f>IF(D15=0, 0, (C15-D15)/D15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <f>SUM(G16:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="56">
+        <f>SUM(H16:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" ref="F11:G11" si="3">SUM(F12:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="J15" s="57">
+        <f>IF(H15=0, 0, (G15-H15)/H15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="56">
+        <f>SUM(K16:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="56">
+        <f>SUM(L16:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
+        <f>IF(L15=0, 0, (K15-L15)/L15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0</v>
+      </c>
+      <c r="M16" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="C17" s="45">
+        <v>0</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0</v>
+      </c>
+      <c r="M17" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" ref="E18" si="3">C18-D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <f t="shared" ref="I18" si="4">G18-H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="45">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+      <c r="M18" s="45">
+        <f t="shared" ref="M18" si="5">K18-L18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="45">
+        <v>0</v>
+      </c>
+      <c r="D19" s="45">
+        <v>0</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="45">
+        <v>0</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+      <c r="M19" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
-        <f>SUM(C16:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <f>SUM(D16:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:G15" si="4">SUM(F16:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="13">
-        <f>SUM(C19,C15,C11,C7,C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
-        <f>SUM(F15,F11,F7,F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f>SUM(G3,G7,G11,G15)</f>
-        <v>0</v>
-      </c>
+      <c r="C20" s="46">
+        <v>0</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="46">
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0</v>
+      </c>
+      <c r="M20" s="46">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="55">
+        <f>SUM(C15,C11,C7,C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="55">
+        <f>SUM(D20,D15,D11,D7,D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="46">
+        <f>SUM(E16,E12,E8,E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="57">
+        <f>IF(D21=0, 0, (C21-D21)/D21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="46">
+        <f>SUM(G16,G12,G8,G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="55">
+        <f>SUM(H20,H15,H11,H7,H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="46">
+        <f>SUM(I16,I12,I8,I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="57">
+        <f>IF(H21=0, 0, (G21-H21)/H21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <f>SUM(K16,K12,K8,K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="55">
+        <f>SUM(L20,L15,L11,L7,L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="46">
+        <f>SUM(M16,M12,M8,M4)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="57">
+        <f>IF(L21=0, 0, (K21-L21)/L21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1275000000</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29">
+        <v>25000000</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29">
+        <v>1500000</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Template.xlsx
+++ b/data/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kgeoghegan\Dev\firmwide-crypto-risk-report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D5742-2FF3-46CF-81D5-FEF94A779033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB0017-5336-49D9-B537-B7251423354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="-19200" windowWidth="15210" windowHeight="13860" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
+    <workbookView xWindow="20475" yWindow="-21420" windowWidth="15210" windowHeight="11400" xr2:uid="{0BBBADB0-E3A1-459F-9978-2B58DAABE101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>GDLP + GDT</t>
   </si>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -302,19 +302,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -364,19 +351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -622,26 +596,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,84 +626,79 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD234A-2BA1-40DE-A5D0-27D813525519}">
-  <dimension ref="A1:AF52"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,18 +1060,17 @@
     <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.1796875" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.08984375" customWidth="1"/>
-    <col min="29" max="29" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.1796875" customWidth="1"/>
+    <col min="25" max="25" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.08984375" customWidth="1"/>
+    <col min="28" max="28" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1125,11 +1094,10 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1169,7 +1137,7 @@
         <v>28</v>
       </c>
       <c r="O2" s="8"/>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="26" t="s">
         <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1182,7 +1150,7 @@
         <v>28</v>
       </c>
       <c r="T2" s="1"/>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="V2" s="10" t="s">
@@ -1191,939 +1159,910 @@
       <c r="W2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="48">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="48">
+        <f>SUM(D4:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="48">
+        <f t="shared" ref="E3:E19" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
+        <f>IF(D3=0, 0, (C3-D3)/D3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="48">
+        <f>SUM(H4:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="48">
+        <f t="shared" ref="I3:I19" si="1">G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="49">
+        <f>IF(H3=0, 0, (G3-H3)/H3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="48">
+        <f>SUM(L4:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="48">
+        <f t="shared" ref="M3:M19" si="2">K3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="49">
+        <f>IF(L3=0, 0, (K3-L3)/L3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>0</v>
+      </c>
+      <c r="R3" s="43">
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <f>IF(R3=0, 0, (Q3-R3)/R3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="52">
+        <f>SUM(V4:V5)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="52">
+        <f>SUM(W4:W5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="56">
-        <f>SUM(C4:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="56">
-        <f>SUM(D4:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="56">
-        <f t="shared" ref="E3:E19" si="0">C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="57">
-        <f>IF(D3=0, 0, (C3-D3)/D3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="56">
-        <f>SUM(G4:G6)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="56">
-        <f>SUM(H4:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="56">
-        <f t="shared" ref="I3:I19" si="1">G3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="57">
-        <f>IF(H3=0, 0, (G3-H3)/H3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="56">
-        <f>SUM(K4:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="56">
-        <f>SUM(L4:L6)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="56">
-        <f t="shared" ref="M3:M19" si="2">K3-L3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="57">
-        <f>IF(L3=0, 0, (K3-L3)/L3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="51">
-        <v>0</v>
-      </c>
-      <c r="R3" s="51">
-        <v>0</v>
-      </c>
-      <c r="S3" s="47">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="15" t="s">
+      <c r="AC3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>0</v>
+      </c>
+      <c r="R4" s="43">
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <f t="shared" ref="S4:S5" si="3">IF(R4=0, 0, (Q4-R4)/R4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="Y4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>0</v>
+      </c>
+      <c r="R5" s="43">
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="52">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="51">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="45">
-        <v>0</v>
-      </c>
-      <c r="D4" s="45">
-        <v>0</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="Y5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="45">
-        <v>0</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="F6" s="1"/>
+      <c r="G6" s="37">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="45">
-        <v>0</v>
-      </c>
-      <c r="L4" s="45">
-        <v>0</v>
-      </c>
-      <c r="M4" s="45">
+      <c r="J6" s="1"/>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="51">
-        <v>0</v>
-      </c>
-      <c r="R4" s="51">
-        <v>0</v>
-      </c>
-      <c r="S4" s="47">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="45">
-        <v>0</v>
-      </c>
-      <c r="D5" s="45">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="45">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="45">
-        <v>0</v>
-      </c>
-      <c r="L5" s="45">
-        <v>0</v>
-      </c>
-      <c r="M5" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="51">
-        <v>0</v>
-      </c>
-      <c r="R5" s="51">
-        <v>0</v>
-      </c>
-      <c r="S5" s="47">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA5" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="45">
-        <v>0</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="45">
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="45">
-        <v>0</v>
-      </c>
-      <c r="L6" s="45">
-        <v>0</v>
-      </c>
-      <c r="M6" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="52">
+        <f>SUM(V7:V8)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="52">
+        <f>SUM(W7:W8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="48">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="48">
+        <f>SUM(D8:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <f>IF(D7=0, 0, (C7-D7)/D7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="48">
+        <f>SUM(H8:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="49">
+        <f>IF(H7=0, 0, (G7-H7)/H7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="48">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="48">
+        <f>SUM(L8:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="49">
+        <f>IF(L7=0, 0, (K7-L7)/L7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA6" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="56">
-        <f>SUM(C8:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="56">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="56">
+      <c r="Y7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="57">
-        <f>IF(D7=0, 0, (C7-D7)/D7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="56">
-        <f>SUM(G8:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="56">
-        <f>SUM(H8:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="56">
+      <c r="F8" s="1"/>
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="57">
-        <f>IF(H7=0, 0, (G7-H7)/H7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="56">
-        <f>SUM(K8:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="56">
-        <f>SUM(L8:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="56">
+      <c r="J8" s="1"/>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="57">
-        <f>IF(L7=0, 0, (K7-L7)/L7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="45">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="45">
-        <v>0</v>
-      </c>
-      <c r="L8" s="45">
-        <v>0</v>
-      </c>
-      <c r="M8" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="36" t="s">
+      <c r="U8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="V8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Y8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA8" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45">
-        <v>0</v>
-      </c>
-      <c r="D9" s="45">
-        <v>0</v>
-      </c>
-      <c r="E9" s="45">
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="45">
-        <v>0</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45">
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="45">
-        <v>0</v>
-      </c>
-      <c r="L9" s="45">
-        <v>0</v>
-      </c>
-      <c r="M9" s="45">
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0</v>
+      </c>
+      <c r="M9" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V9" s="52">
+        <f>SUM(V10:V11)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="52">
+        <f>SUM(W10:W11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="45">
-        <v>0</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="45">
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="45">
-        <v>0</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="45">
-        <v>0</v>
-      </c>
-      <c r="L10" s="45">
-        <v>0</v>
-      </c>
-      <c r="M10" s="45">
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="14"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="36" t="s">
+      <c r="U10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="23" t="s">
+    </row>
+    <row r="11" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="48">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <f>SUM(D12:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <f>IF(D11=0, 0, (C11-D11)/D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="48">
+        <f>SUM(H12:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <f>IF(H11=0, 0, (G11-H11)/H11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="48">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="48">
+        <f>SUM(L12:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="49">
+        <f>IF(L11=0, 0, (K11-L11)/L11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="56">
-        <f>SUM(C12:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="56">
-        <f>SUM(D12:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="56">
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57">
-        <f>IF(D11=0, 0, (C11-D11)/D11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="56">
-        <f>SUM(G12:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="56">
-        <f>SUM(H12:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="56">
+      <c r="F12" s="1"/>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57">
-        <f>IF(H11=0, 0, (G11-H11)/H11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="56">
-        <f>SUM(K12:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="56">
-        <f>SUM(L12:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="56">
+      <c r="J12" s="1"/>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="57">
-        <f>IF(L11=0, 0, (K11-L11)/L11)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0</v>
-      </c>
-      <c r="D12" s="45">
-        <v>0</v>
-      </c>
-      <c r="E12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="45">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="45">
-        <v>0</v>
-      </c>
-      <c r="L12" s="45">
-        <v>0</v>
-      </c>
-      <c r="M12" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V12" s="52">
+        <f>SUM(V13:V14)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="52">
+        <f>SUM(W13:W14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="45">
-        <v>0</v>
-      </c>
-      <c r="D13" s="45">
-        <v>0</v>
-      </c>
-      <c r="E13" s="45">
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="45">
-        <v>0</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0</v>
-      </c>
-      <c r="I13" s="45">
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="45">
-        <v>0</v>
-      </c>
-      <c r="L13" s="45">
-        <v>0</v>
-      </c>
-      <c r="M13" s="45">
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="36" t="s">
+      <c r="U13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="V13" s="19" t="s">
+      <c r="V13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45">
-        <v>0</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0</v>
-      </c>
-      <c r="E14" s="45">
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="45">
-        <v>0</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0</v>
-      </c>
-      <c r="I14" s="45">
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="45">
-        <v>0</v>
-      </c>
-      <c r="L14" s="45">
-        <v>0</v>
-      </c>
-      <c r="M14" s="45">
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="36" t="s">
+      <c r="U14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="19" t="s">
+      <c r="V14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="48">
         <f>SUM(C16:C19)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="48">
         <f>SUM(D16:D19)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="49">
         <f>IF(D15=0, 0, (C15-D15)/D15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="48">
         <f>SUM(G16:G19)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="48">
         <f>SUM(H16:H19)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="49">
         <f>IF(H15=0, 0, (G15-H15)/H15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="48">
         <f>SUM(K16:K19)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="48">
         <f>SUM(L16:L19)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="49">
         <f>IF(L15=0, 0, (K15-L15)/L15)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X15" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="V15" s="53">
+        <f>SUM(V12,V9,V6,V3)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="53">
+        <f>SUM(W12,W9,W6,W3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
-      <c r="D16" s="45">
-        <v>0</v>
-      </c>
-      <c r="E16" s="45">
+      <c r="C16" s="37">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="45">
-        <v>0</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0</v>
-      </c>
-      <c r="I16" s="45">
+      <c r="G16" s="37">
+        <v>0</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="45">
-        <v>0</v>
-      </c>
-      <c r="L16" s="45">
-        <v>0</v>
-      </c>
-      <c r="M16" s="45">
+      <c r="K16" s="37">
+        <v>0</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="18"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2133,46 +2072,45 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="45">
-        <v>0</v>
-      </c>
-      <c r="D17" s="45">
-        <v>0</v>
-      </c>
-      <c r="E17" s="45">
+      <c r="C17" s="37">
+        <v>0</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="45">
-        <v>0</v>
-      </c>
-      <c r="H17" s="45">
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="45">
-        <v>0</v>
-      </c>
-      <c r="L17" s="45">
-        <v>0</v>
-      </c>
-      <c r="M17" s="45">
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2182,46 +2120,45 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
-      <c r="D18" s="45">
-        <v>0</v>
-      </c>
-      <c r="E18" s="45">
-        <f t="shared" ref="E18" si="3">C18-D18</f>
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <f t="shared" ref="E18" si="4">C18-D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="45">
-        <v>0</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0</v>
-      </c>
-      <c r="I18" s="45">
-        <f t="shared" ref="I18" si="4">G18-H18</f>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <f t="shared" ref="I18" si="5">G18-H18</f>
         <v>0</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="45">
-        <v>0</v>
-      </c>
-      <c r="L18" s="45">
-        <v>0</v>
-      </c>
-      <c r="M18" s="45">
-        <f t="shared" ref="M18" si="5">K18-L18</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="18"/>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <f t="shared" ref="M18" si="6">K18-L18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2231,46 +2168,45 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="45">
-        <v>0</v>
-      </c>
-      <c r="D19" s="45">
-        <v>0</v>
-      </c>
-      <c r="E19" s="45">
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="45">
-        <v>0</v>
-      </c>
-      <c r="H19" s="45">
-        <v>0</v>
-      </c>
-      <c r="I19" s="45">
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="45">
-        <v>0</v>
-      </c>
-      <c r="L19" s="45">
-        <v>0</v>
-      </c>
-      <c r="M19" s="45">
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="18"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2280,153 +2216,149 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="46">
-        <v>0</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0</v>
-      </c>
-      <c r="E20" s="46">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="46">
-        <v>0</v>
-      </c>
-      <c r="H20" s="46">
-        <v>0</v>
-      </c>
-      <c r="I20" s="46">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="46">
-        <v>0</v>
-      </c>
-      <c r="L20" s="46">
-        <v>0</v>
-      </c>
-      <c r="M20" s="46">
-        <v>0</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="C20" s="38">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="38">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38">
+        <v>0</v>
+      </c>
+      <c r="I20" s="38">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="38">
+        <v>0</v>
+      </c>
+      <c r="L20" s="38">
+        <v>0</v>
+      </c>
+      <c r="M20" s="38">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="47">
         <f>SUM(C15,C11,C7,C3)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="47">
         <f>SUM(D20,D15,D11,D7,D3)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="38">
         <f>SUM(E16,E12,E8,E4)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="49">
         <f>IF(D21=0, 0, (C21-D21)/D21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="38">
         <f>SUM(G16,G12,G8,G4)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="47">
         <f>SUM(H20,H15,H11,H7,H3)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="38">
         <f>SUM(I16,I12,I8,I4)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="49">
         <f>IF(H21=0, 0, (G21-H21)/H21)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="38">
         <f>SUM(K16,K12,K8,K4)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="47">
         <f>SUM(L20,L15,L11,L7,L3)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="38">
         <f>SUM(M16,M12,M8,M4)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="49">
         <f>IF(L21=0, 0, (K21-L21)/L21)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="1"/>
       <c r="U21" s="8"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W21" s="51"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="21">
         <v>1275000000</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
         <v>25000000</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21">
         <v>1500000</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2439,7 +2371,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="31"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2450,9 +2382,8 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2461,11 +2392,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2477,14 +2408,14 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="31"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2502,14 +2433,14 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="31"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2527,14 +2458,14 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="B27" s="43"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="31"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2552,14 +2483,14 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="31"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2577,14 +2508,14 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="43"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="31"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2602,18 +2533,18 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="B30" s="43"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2627,13 +2558,13 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2652,9 +2583,9 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="B32" s="43"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2679,7 +2610,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2704,11 +2635,11 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -2729,12 +2660,12 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="43"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2754,7 +2685,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="43"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2779,11 +2710,11 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2854,7 +2785,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="B40" s="31"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2879,7 +2810,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2904,7 +2835,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2929,7 +2860,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2954,7 +2885,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="31"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2979,8 +2910,8 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3054,7 +2985,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
